--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hussein\Technical\RPA\My Course\Tasks &amp; Projects\30-English Sentences Cram\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1299CEE-C3F2-4F03-92D8-10794083BB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07AAD27-DDCF-4C56-B9B4-CD081297847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>SentencesFilePath</t>
+  </si>
+  <si>
+    <t>AccountName</t>
   </si>
 </sst>
 </file>
@@ -2883,7 +2886,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2952,7 +2955,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hussein\Technical\RPA\My Course\Tasks &amp; Projects\30-English Sentences Cram\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07AAD27-DDCF-4C56-B9B4-CD081297847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559E970-07E5-4713-85E5-659A19F75046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>msedge,EXCEL</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>AccountName</t>
+  </si>
+  <si>
+    <t>Sentences</t>
+  </si>
+  <si>
+    <t>URLEdit</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -634,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -644,7 +647,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -664,31 +669,31 @@
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>5000</v>
@@ -696,7 +701,7 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>10000</v>
@@ -704,7 +709,7 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>15000</v>
@@ -712,7 +717,7 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -720,10 +725,10 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2886,7 +2891,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2935,38 +2940,48 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hussein\Technical\RPA\My Course\Tasks &amp; Projects\30-English Sentences Cram\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559E970-07E5-4713-85E5-659A19F75046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211D41FD-4116-42D7-A66F-9E122128916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>URLEdit</t>
+  </si>
+  <si>
+    <t>DashboardURL</t>
   </si>
 </sst>
 </file>
@@ -2891,7 +2894,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2982,7 +2985,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
